--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanIntDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanIntDetail.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FF66B8-800C-49DA-9579-7E3DB4F7A3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -92,9 +91,6 @@
     <t>指標利率代碼</t>
   </si>
   <si>
-    <t>交易序號-櫃員別</t>
-  </si>
-  <si>
     <t>計息流水號</t>
   </si>
   <si>
@@ -421,13 +417,17 @@
   <si>
     <t>0:否
 1:是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易序號-經辦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -768,23 +768,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -820,23 +803,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1012,11 +978,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="85.6640625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1033,14 +999,14 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
@@ -1056,7 +1022,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
@@ -1067,14 +1033,14 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="21"/>
@@ -1085,14 +1051,14 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="21"/>
@@ -1103,7 +1069,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="7"/>
@@ -1117,7 +1083,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="7"/>
@@ -1131,7 +1097,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="7"/>
@@ -1172,13 +1138,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="4">
         <v>7</v>
@@ -1192,13 +1158,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="4">
         <v>3</v>
@@ -1212,13 +1178,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
@@ -1232,13 +1198,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="4">
         <v>8</v>
@@ -1252,13 +1218,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="4">
         <v>6</v>
@@ -1272,13 +1238,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="15">
         <v>8</v>
@@ -1292,13 +1258,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="4">
         <v>3</v>
@@ -1312,13 +1278,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="4">
         <v>8</v>
@@ -1332,13 +1298,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="4">
         <v>8</v>
@@ -1352,13 +1318,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="4">
         <v>5</v>
@@ -1372,13 +1338,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="4">
         <v>5</v>
@@ -1392,13 +1358,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -1412,19 +1378,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>78</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H21" s="5"/>
     </row>
@@ -1434,13 +1400,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="4">
         <v>3</v>
@@ -1454,13 +1420,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="4">
         <v>16</v>
@@ -1477,13 +1443,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="4">
         <v>6</v>
@@ -1500,13 +1466,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>80</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="4">
         <v>16</v>
@@ -1523,13 +1489,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="4">
         <v>16</v>
@@ -1546,13 +1512,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="4">
         <v>16</v>
@@ -1569,13 +1535,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="4">
         <v>16</v>
@@ -1592,13 +1558,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="4">
         <v>16</v>
@@ -1615,19 +1581,19 @@
         <v>22</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H30" s="5"/>
     </row>
@@ -1637,13 +1603,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>92</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" s="4">
         <v>16</v>
@@ -1660,19 +1626,19 @@
         <v>24</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>94</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H32" s="5"/>
     </row>
@@ -1682,13 +1648,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" s="4">
         <v>5</v>
@@ -1702,13 +1668,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="4">
         <v>2</v>
@@ -1722,13 +1688,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" s="4">
         <v>6</v>
@@ -1745,13 +1711,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" s="4">
         <v>6</v>
@@ -1768,13 +1734,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="5"/>
@@ -1785,13 +1751,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="4">
         <v>6</v>
@@ -1805,13 +1771,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="5"/>
@@ -1822,13 +1788,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E40" s="4">
         <v>6</v>
@@ -1853,7 +1819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1871,7 +1837,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -1882,24 +1848,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanIntDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanIntDetail.xlsx
@@ -1,35 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3C4DA4-31E7-4692-9960-D7D39722D75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="104">
   <si>
     <t>備註說明</t>
   </si>
@@ -255,14 +247,6 @@
   </si>
   <si>
     <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
@@ -422,12 +406,15 @@
   <si>
     <t>交易序號-經辦</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -584,14 +571,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -600,9 +587,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,13 +626,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -693,9 +671,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -733,9 +711,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -770,7 +748,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -805,7 +783,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -978,11 +956,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="85.6640625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -990,157 +968,143 @@
     <col min="1" max="1" width="5.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="85.6640625" style="9"/>
-    <col min="9" max="16384" width="85.6640625" style="5"/>
+    <col min="8" max="8" width="85.6640625" style="8"/>
+    <col min="9" max="16384" width="85.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1149,18 +1113,18 @@
       <c r="E9" s="4">
         <v>7</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G9" s="8"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" ref="A10:A40" si="0">A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1169,18 +1133,18 @@
       <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G10" s="8"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1189,70 +1153,70 @@
       <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G11" s="8"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E12" s="4">
         <v>8</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G12" s="17"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="4">
         <v>6</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G13" s="17"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="15">
+        <v>64</v>
+      </c>
+      <c r="E14" s="14">
         <v>8</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G14" s="8"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1260,7 +1224,7 @@
       <c r="B15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1269,10 +1233,10 @@
       <c r="E15" s="4">
         <v>3</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G15" s="8"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1280,17 +1244,17 @@
       <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E16" s="4">
         <v>8</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="5"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -1300,17 +1264,17 @@
       <c r="B17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17" s="4">
         <v>8</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -1320,7 +1284,7 @@
       <c r="B18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1329,8 +1293,8 @@
       <c r="E18" s="4">
         <v>5</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -1340,17 +1304,17 @@
       <c r="B19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E19" s="4">
         <v>5</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -1358,19 +1322,19 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -1378,21 +1342,21 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="5"/>
+      <c r="G21" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -1402,17 +1366,17 @@
       <c r="B22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" s="4">
         <v>3</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="5"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
@@ -1420,9 +1384,9 @@
         <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1434,8 +1398,8 @@
       <c r="F23" s="4">
         <v>2</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="5"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
@@ -1445,11 +1409,11 @@
       <c r="B24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E24" s="4">
         <v>6</v>
@@ -1457,8 +1421,8 @@
       <c r="F24" s="4">
         <v>4</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="5"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
@@ -1466,10 +1430,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>63</v>
@@ -1480,8 +1444,8 @@
       <c r="F25" s="4">
         <v>2</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -1491,7 +1455,7 @@
       <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -1503,8 +1467,8 @@
       <c r="F26" s="4">
         <v>2</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="5"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
@@ -1512,9 +1476,9 @@
         <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -1526,8 +1490,8 @@
       <c r="F27" s="4">
         <v>2</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="5"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
@@ -1537,7 +1501,7 @@
       <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1549,8 +1513,8 @@
       <c r="F28" s="4">
         <v>2</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="5"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
@@ -1558,9 +1522,9 @@
         <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -1572,41 +1536,41 @@
       <c r="F29" s="4">
         <v>2</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="5"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="13" t="s">
+      <c r="B30" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="5"/>
+      <c r="G30" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>91</v>
+      <c r="B31" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>63</v>
@@ -1617,19 +1581,19 @@
       <c r="F31" s="4">
         <v>2</v>
       </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="5"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>93</v>
+      <c r="B32" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>63</v>
@@ -1637,10 +1601,10 @@
       <c r="E32" s="4">
         <v>1</v>
       </c>
-      <c r="G32" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="H32" s="5"/>
+      <c r="G32" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -1650,17 +1614,17 @@
       <c r="B33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33" s="4">
         <v>5</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="5"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
@@ -1670,17 +1634,17 @@
       <c r="B34" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E34" s="4">
         <v>2</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="5"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
@@ -1690,7 +1654,7 @@
       <c r="B35" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -1702,8 +1666,8 @@
       <c r="F35" s="4">
         <v>4</v>
       </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="5"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
@@ -1713,7 +1677,7 @@
       <c r="B36" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -1725,82 +1689,82 @@
       <c r="F36" s="4">
         <v>4</v>
       </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="5"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E38" s="4">
         <v>6</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="5"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E40" s="4">
         <v>6</v>
       </c>
-      <c r="G40" s="18"/>
-      <c r="H40" s="5"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1819,7 +1783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1836,36 +1800,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
